--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A5D468-2A17-477F-BF7E-FA880C06AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A79C44-F2AB-483F-924D-A4D43C1A103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{4F46A47A-02D7-45C3-B28F-1739CEECCA3B}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{6A381FB2-1628-48B6-B6FE-4E579CD22595}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -860,12 +860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEE61CA-2C8E-4664-AC53-587A65C25451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF5347-A3DE-4780-A8AC-B17C6CE8728C}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A79C44-F2AB-483F-924D-A4D43C1A103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA34A9F-B242-4DB9-9CD6-C8826468291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{6A381FB2-1628-48B6-B6FE-4E579CD22595}"/>
+    <workbookView minimized="1" xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{3A49F9AD-A89C-4EE8-B55D-9DA77475E3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
   <si>
     <t>First Generation</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>PUMP:PRS:2</t>
+  </si>
+  <si>
+    <t>SEPERATOR</t>
   </si>
   <si>
     <t xml:space="preserve">PUMP:RISK:20 </t>
@@ -860,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF5347-A3DE-4780-A8AC-B17C6CE8728C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F364022-53A4-4C4F-9CB5-1A3115D99F98}">
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -910,7 +913,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -920,36 +925,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -959,36 +966,38 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -998,36 +1007,38 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1037,46 +1048,48 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1086,176 +1099,178 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1265,61 +1280,63 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="3"/>
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1329,36 +1346,38 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1368,36 +1387,38 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1407,46 +1428,48 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3"/>
+      <c r="A104" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -1456,36 +1479,38 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -1495,46 +1520,48 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -1544,56 +1571,58 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D127" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E128" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -1603,31 +1632,33 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D135" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -1637,116 +1668,118 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E143" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E147" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C148" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E151" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C156" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E159" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -1756,26 +1789,28 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C163" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D164" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -1785,31 +1820,33 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -1819,26 +1856,28 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -1848,21 +1887,23 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -1872,26 +1913,28 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -1901,31 +1944,33 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -1935,31 +1980,33 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" s="3"/>
+      <c r="A197" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -1969,31 +2016,33 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="3"/>
+      <c r="A203" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -2003,111 +2052,113 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C206" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C207" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D208" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C210" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D212" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C214" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C215" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D216" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C219" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D220" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C223" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D224" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A225" s="3"/>
+      <c r="A225" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -2117,21 +2168,23 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C228" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A229" s="3"/>
+      <c r="A229" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -2141,21 +2194,23 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B231" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -2165,21 +2220,23 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A237" s="3"/>
+      <c r="A237" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -2189,21 +2246,23 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B239" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B240" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A241" s="3"/>
+      <c r="A241" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -2213,21 +2272,23 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B243" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B244" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -2237,21 +2298,23 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B247" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B248" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -2261,21 +2324,23 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B251" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B252" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -2285,21 +2350,23 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B256" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -2309,21 +2376,23 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B259" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A261" s="3"/>
+      <c r="A261" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -2333,21 +2402,23 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B264" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A265" s="3"/>
+      <c r="A265" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -2357,21 +2428,23 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A269" s="3"/>
+      <c r="A269" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -2381,21 +2454,23 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B272" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -2405,21 +2480,23 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B275" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B276" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A277" s="3"/>
+      <c r="A277" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -2429,17 +2506,17 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B279" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B280" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA34A9F-B242-4DB9-9CD6-C8826468291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9AF2A3-9B7F-4B4C-A604-3A895FCC6B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{3A49F9AD-A89C-4EE8-B55D-9DA77475E3DF}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{9BD13FF8-97EA-40E0-B6B6-2D8866A0D43B}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F364022-53A4-4C4F-9CB5-1A3115D99F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF8656B-CE5F-401B-8EC2-4E5C061345AA}">
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EAA4F78-E62A-47F8-857B-D4911B7ED3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4DA647-7316-4E1F-B847-42695E8F2359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{731CC74E-2928-41F1-A883-7BCE2CE60263}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{70D49934-2196-4EE2-9595-21CD0245E686}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E6646-360A-4420-BA27-CF9B2038ED25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B0F8F7-8383-49A9-B8F7-B5A6102040C3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4DA647-7316-4E1F-B847-42695E8F2359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65935CFC-57C4-4033-B597-B56E0B521E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{70D49934-2196-4EE2-9595-21CD0245E686}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{BDDAE5B0-18DE-47B3-AB2E-9E5B7F5C98AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B0F8F7-8383-49A9-B8F7-B5A6102040C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E2FB65-E0D4-4A50-878A-F773CE4C45C2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65935CFC-57C4-4033-B597-B56E0B521E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1173B8-748E-45E8-B925-9D603B831EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{BDDAE5B0-18DE-47B3-AB2E-9E5B7F5C98AB}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{9114C009-F96B-4F2B-8F98-17DD87E2B9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,470 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
+  <si>
+    <t>First Generation</t>
+  </si>
+  <si>
+    <t>Second Generation</t>
+  </si>
+  <si>
+    <t>Third Generation</t>
+  </si>
+  <si>
+    <t>Fourth Generation</t>
+  </si>
+  <si>
+    <t>Fifth Generation</t>
+  </si>
+  <si>
+    <t>Sixth Generation</t>
+  </si>
+  <si>
+    <t>Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:2</t>
+  </si>
+  <si>
+    <t>SEPERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:20 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:100</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:30 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:8</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:12</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:400</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:40 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:105</t>
+  </si>
+  <si>
+    <t>ACE:SRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:70</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:300</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:50 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:2</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:20</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:200</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:200</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:1</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:2</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:5</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:5</t>
+  </si>
+  <si>
+    <t>ACE:SRS:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:10</t>
+  </si>
+  <si>
+    <t>ACE:SRS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:400</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3340</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4000</t>
+  </si>
+  <si>
+    <t>AID:SRS:1</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:30</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:500</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:500</t>
+  </si>
+  <si>
+    <t>AID:SRS:2</t>
+  </si>
+  <si>
+    <t>AID:SRS:10</t>
+  </si>
+  <si>
+    <t>AID:SRS:12</t>
+  </si>
+  <si>
+    <t>AID:SRS:20</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1200</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1200</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1111</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:0000</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:200</t>
+  </si>
+  <si>
+    <t>PUMPHTR:200</t>
+  </si>
+  <si>
+    <t>ACE:SRS:110</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:40</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:50</t>
+  </si>
+  <si>
+    <t>ACE:SRS:120</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:6</t>
+  </si>
+  <si>
+    <t>ACE:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:TBD:1</t>
+  </si>
+  <si>
+    <t>PUMP:DER:2</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:100</t>
+  </si>
+  <si>
+    <t>PUMP:UT:100</t>
+  </si>
+  <si>
+    <t>PUMP:INS:100</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:110</t>
+  </si>
+  <si>
+    <t>PUMP:UT:110</t>
+  </si>
+  <si>
+    <t>PUMP:INS:110</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:120</t>
+  </si>
+  <si>
+    <t>PUMP:UT:120</t>
+  </si>
+  <si>
+    <t>PUMP:INS:120</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:130</t>
+  </si>
+  <si>
+    <t>PUMP:UT:130</t>
+  </si>
+  <si>
+    <t>PUMP:INS:130</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:140</t>
+  </si>
+  <si>
+    <t>PUMP:UT:140</t>
+  </si>
+  <si>
+    <t>PUMP:INS:140</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:150</t>
+  </si>
+  <si>
+    <t>PUMP:UT:150</t>
+  </si>
+  <si>
+    <t>PUMP:INS:150</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:160</t>
+  </si>
+  <si>
+    <t>PUMP:UT:160</t>
+  </si>
+  <si>
+    <t>PUMP:INS:160</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:170</t>
+  </si>
+  <si>
+    <t>PUMP:UT:170</t>
+  </si>
+  <si>
+    <t>PUMP:INS:170</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:180</t>
+  </si>
+  <si>
+    <t>PUMP:UT:180</t>
+  </si>
+  <si>
+    <t>PUMP:INS:180</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:190</t>
+  </si>
+  <si>
+    <t>PUMP:UT:190</t>
+  </si>
+  <si>
+    <t>PUMP:INS:190</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:200</t>
+  </si>
+  <si>
+    <t>PUMP:UT:200</t>
+  </si>
+  <si>
+    <t>PUMP:INS:200</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:210</t>
+  </si>
+  <si>
+    <t>PUMP:UT:210</t>
+  </si>
+  <si>
+    <t>PUMP:INS:210</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:220</t>
+  </si>
+  <si>
+    <t>PUMP:UT:220</t>
+  </si>
+  <si>
+    <t>PUMP:INS:220</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +506,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79CDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +864,1664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E2FB65-E0D4-4A50-878A-F773CE4C45C2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD619D51-855E-444E-8B95-006F390D9FDB}">
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D153" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C156" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D164" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C168" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B205" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C206" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D208" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C210" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C211" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D212" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C214" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D216" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C218" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C219" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D220" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C223" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D224" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3A75B4-993D-4083-9B28-35A4385C053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02DF853-3F4F-4F6B-A56C-406BFC6CF0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10065" xr2:uid="{0F0330BB-C34F-4FD1-85DC-6549A70BAAB8}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{08096852-05B8-4627-A579-3C7478D6A423}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,470 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
+  <si>
+    <t>First Generation</t>
+  </si>
+  <si>
+    <t>Second Generation</t>
+  </si>
+  <si>
+    <t>Third Generation</t>
+  </si>
+  <si>
+    <t>Fourth Generation</t>
+  </si>
+  <si>
+    <t>Fifth Generation</t>
+  </si>
+  <si>
+    <t>Sixth Generation</t>
+  </si>
+  <si>
+    <t>Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:2</t>
+  </si>
+  <si>
+    <t>SEPERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:20 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:100</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:30 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:8</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:12</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:400</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:40 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:105</t>
+  </si>
+  <si>
+    <t>ACE:SRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:70</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:300</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:RISK:50 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:1000</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1300</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:300</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1</t>
+  </si>
+  <si>
+    <t>ACE:SRS:2</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:20</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:200</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:200</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:1</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:2</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:5</t>
+  </si>
+  <si>
+    <t>BOLUS:SRS:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:5</t>
+  </si>
+  <si>
+    <t>ACE:SRS:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:10</t>
+  </si>
+  <si>
+    <t>ACE:SRS:10</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:100</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1100</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:100</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3330</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1400</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:400</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:400</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3340</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
+  </si>
+  <si>
+    <t>PUMP:PRS:4000</t>
+  </si>
+  <si>
+    <t>AID:SRS:1</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:30</t>
+  </si>
+  <si>
+    <t>PUMP:SVAL:500</t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:500</t>
+  </si>
+  <si>
+    <t>AID:SRS:2</t>
+  </si>
+  <si>
+    <t>AID:SRS:10</t>
+  </si>
+  <si>
+    <t>AID:SRS:12</t>
+  </si>
+  <si>
+    <t>AID:SRS:20</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1200</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1200</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1111</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:3350</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HTR:1500</t>
+  </si>
+  <si>
+    <t>PUMP:HRD:0000</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:103</t>
+  </si>
+  <si>
+    <t>PUMP:HRS:105</t>
+  </si>
+  <si>
+    <t>PUMP:HTP:200</t>
+  </si>
+  <si>
+    <t>PUMPHTR:200</t>
+  </si>
+  <si>
+    <t>ACE:SRS:110</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:40</t>
+  </si>
+  <si>
+    <t>PUMP:SDS:50</t>
+  </si>
+  <si>
+    <t>ACE:SRS:120</t>
+  </si>
+  <si>
+    <t>PUMP:TBV:1</t>
+  </si>
+  <si>
+    <t>PUMP:PRS:6</t>
+  </si>
+  <si>
+    <t>ACE:SRS:6</t>
+  </si>
+  <si>
+    <t>PUMP:TBD:1</t>
+  </si>
+  <si>
+    <t>PUMP:DER:2</t>
+  </si>
+  <si>
+    <t>ACE:SRS:1000</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:100</t>
+  </si>
+  <si>
+    <t>PUMP:UT:100</t>
+  </si>
+  <si>
+    <t>PUMP:INS:100</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:110</t>
+  </si>
+  <si>
+    <t>PUMP:UT:110</t>
+  </si>
+  <si>
+    <t>PUMP:INS:110</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:120</t>
+  </si>
+  <si>
+    <t>PUMP:UT:120</t>
+  </si>
+  <si>
+    <t>PUMP:INS:120</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:130</t>
+  </si>
+  <si>
+    <t>PUMP:UT:130</t>
+  </si>
+  <si>
+    <t>PUMP:INS:130</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:140</t>
+  </si>
+  <si>
+    <t>PUMP:UT:140</t>
+  </si>
+  <si>
+    <t>PUMP:INS:140</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:150</t>
+  </si>
+  <si>
+    <t>PUMP:UT:150</t>
+  </si>
+  <si>
+    <t>PUMP:INS:150</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:160</t>
+  </si>
+  <si>
+    <t>PUMP:UT:160</t>
+  </si>
+  <si>
+    <t>PUMP:INS:160</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:170</t>
+  </si>
+  <si>
+    <t>PUMP:UT:170</t>
+  </si>
+  <si>
+    <t>PUMP:INS:170</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:180</t>
+  </si>
+  <si>
+    <t>PUMP:UT:180</t>
+  </si>
+  <si>
+    <t>PUMP:INS:180</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:190</t>
+  </si>
+  <si>
+    <t>PUMP:UT:190</t>
+  </si>
+  <si>
+    <t>PUMP:INS:190</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:200</t>
+  </si>
+  <si>
+    <t>PUMP:UT:200</t>
+  </si>
+  <si>
+    <t>PUMP:INS:200</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:210</t>
+  </si>
+  <si>
+    <t>PUMP:UT:210</t>
+  </si>
+  <si>
+    <t>PUMP:INS:210</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:220</t>
+  </si>
+  <si>
+    <t>PUMP:UT:220</t>
+  </si>
+  <si>
+    <t>PUMP:INS:220</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +506,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79CDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +864,2407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA13A7E-A0B0-4B0A-9217-E46252FB8702}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BD04E0-4849-4333-AFAF-6812CD39DB83}">
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D153" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C156" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C163" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D164" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C168" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B205" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C206" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D208" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C210" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C211" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D212" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C214" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D216" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C218" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C219" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D220" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C223" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D224" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B236" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B240" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B243" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B244" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B255" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B256" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B283" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C284" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D285" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B288" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C289" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D290" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B291" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C295" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D296" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B299" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B300" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B303" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B304" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B308" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B314" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B326" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C327" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C328" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D329" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B330" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C331" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C332" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D333" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B334" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C335" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C336" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D337" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B338" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C340" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D341" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B342" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C343" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C344" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D345" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B348" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B352" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B353" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B356" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B357" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B360" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B361" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B364" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B365" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B368" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B369" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B372" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B373" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B376" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B377" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B380" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B381" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B384" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B385" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B388" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B389" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A390" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B392" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B393" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A394" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B396" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B397" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B400" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B401" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02DF853-3F4F-4F6B-A56C-406BFC6CF0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FDD7F3-02EE-4B87-841B-BC4F9B7A377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{08096852-05B8-4627-A579-3C7478D6A423}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{EF162F4E-D3EE-45B7-A2E1-967FB20BCC63}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
   <si>
     <t>First Generation</t>
   </si>
@@ -864,10 +864,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BD04E0-4849-4333-AFAF-6812CD39DB83}">
-  <dimension ref="A1:G401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74181620-CA18-4D17-8C90-1BB347C19BB0}">
+  <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2520,749 +2522,6 @@
         <v>151</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A281" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A282" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B283" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C284" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D285" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A286" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A287" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B288" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C289" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D290" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B291" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A292" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A293" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B294" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C295" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D296" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A297" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A298" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B299" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B300" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A301" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A302" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B303" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C305" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A306" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A307" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B308" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C309" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C310" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D311" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A312" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A313" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B314" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C316" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D317" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A318" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A319" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B320" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C321" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C322" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D323" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A324" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A325" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B326" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C327" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C328" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D329" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C331" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C332" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D333" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B334" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C335" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C336" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D337" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B338" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C339" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C340" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D341" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B342" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C343" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C344" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D345" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A346" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A347" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B348" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C349" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A350" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A351" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B352" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B353" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A354" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A355" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B356" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B357" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A358" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A359" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B360" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B361" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A362" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A363" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B364" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B365" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A366" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A367" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B368" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B369" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A370" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A371" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B372" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B373" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A374" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A375" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B376" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B377" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A378" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A379" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B380" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B381" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A382" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A383" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B384" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B385" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A386" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A387" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B388" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B389" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A390" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A391" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B392" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B393" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A395" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B396" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B397" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A398" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A399" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B400" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B401" t="s">
-        <v>151</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FDD7F3-02EE-4B87-841B-BC4F9B7A377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D5E620-20BD-4089-A0CB-F60DFCE2D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{EF162F4E-D3EE-45B7-A2E1-967FB20BCC63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{47F660EE-C8F7-42F3-A807-04A7F3E0C9F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>PUMP:PRS:2</t>
   </si>
   <si>
-    <t>SEPERATOR</t>
+    <t>SEPARATOR</t>
   </si>
   <si>
     <t xml:space="preserve">PUMP:RISK:20 </t>
@@ -864,12 +864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74181620-CA18-4D17-8C90-1BB347C19BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FFA1CC-2863-43C8-828F-588AA84C2DE7}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2524,6 +2522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelNew.xlsx
+++ b/excelNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D5E620-20BD-4089-A0CB-F60DFCE2D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9A9B83-40A0-4580-B601-380F512E70FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{47F660EE-C8F7-42F3-A807-04A7F3E0C9F6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{2FB51011-552C-4BAF-B72D-F3B15713FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportNew" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -864,20 +864,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FFA1CC-2863-43C8-828F-588AA84C2DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A754A2-D00B-4E4D-8CF1-6BDBFE719EC1}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2522,6 +2522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>